--- a/data/trans_dic/P1427-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1427-Edad-trans_dic.xlsx
@@ -700,21 +700,21 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01032259205927989</v>
+        <v>0.01027633550518099</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.03334065806410146</v>
+        <v>0.03703594368846964</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.00631395790611736</v>
+        <v>0.00527506563575305</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.01625968178388748</v>
+        <v>0.0210493883844434</v>
       </c>
     </row>
     <row r="7">
@@ -795,23 +795,23 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.02488029384980287</v>
+        <v>0.02769493762566048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.008618575236068767</v>
+        <v>0.009751899264187795</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.008720010089069719</v>
+        <v>0.008723468357327173</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.004063423297090585</v>
+        <v>0.004419528395565294</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.004288585622618505</v>
+        <v>0.004264153659856417</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01233139359414924</v>
+        <v>0.015232937931985</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +841,7 @@
         <v>0.002670354378936175</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.003787638361082741</v>
+        <v>0.003787638361082743</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.004989237387559177</v>
@@ -850,7 +850,7 @@
         <v>0.001327439574478603</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.001896881879809576</v>
+        <v>0.001896881879809577</v>
       </c>
     </row>
     <row r="11">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0015365618383885</v>
+        <v>0.001367352162407009</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
@@ -872,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00120505950630782</v>
+        <v>0.00120533093663651</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002082240314058439</v>
+        <v>0.002073981620044929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0006011725207623706</v>
+        <v>0.0006010968849509641</v>
       </c>
     </row>
     <row r="12">
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01421635494294722</v>
+        <v>0.01416247737831588</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.01769114276484671</v>
+        <v>0.01406636738393839</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.009304423280204147</v>
+        <v>0.009273480917005042</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01026352534069111</v>
+        <v>0.01124065241028674</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0114946305053423</v>
+        <v>0.01074913349503679</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.004655510211096114</v>
+        <v>0.004656028130969191</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.00508772733148548</v>
+        <v>0.005121725815978001</v>
       </c>
     </row>
     <row r="13">
@@ -951,7 +951,7 @@
         <v>0.002460033851078059</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.01138222315744719</v>
+        <v>0.0113822231574472</v>
       </c>
     </row>
     <row r="14">
@@ -966,25 +966,25 @@
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.004913847712711037</v>
+        <v>0.004928759234908284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001569627361738893</v>
+        <v>0.001566335684305575</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001535419452701782</v>
+        <v>0.001547289773533542</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00694773199691099</v>
+        <v>0.006559259666965351</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001681512875832646</v>
+        <v>0.0009185694705267225</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0007690258381540966</v>
+        <v>0.0007684713467880337</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007411826061508833</v>
+        <v>0.006819917425042067</v>
       </c>
     </row>
     <row r="15">
@@ -995,29 +995,29 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01664190957861993</v>
+        <v>0.01946168714029556</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.02136135524408394</v>
+        <v>0.02093304397992089</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01486084986103931</v>
+        <v>0.01522478422119652</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01350859855258592</v>
+        <v>0.01460897583198124</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01881206765229528</v>
+        <v>0.01895812232022523</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01268255028877438</v>
+        <v>0.01207593712345198</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.006605111297946237</v>
+        <v>0.007234621551209386</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01733401415469721</v>
+        <v>0.01652816436941234</v>
       </c>
     </row>
     <row r="16">
@@ -1067,31 +1067,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009979008360222634</v>
+        <v>0.01225146924331103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002018929379337944</v>
+        <v>0.002011525840272836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01798878240372459</v>
+        <v>0.01765697554536898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01637370131239279</v>
+        <v>0.01709186664663926</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01299638370584844</v>
+        <v>0.01214029899887016</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02134032386042255</v>
+        <v>0.02151259575531191</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01694257525384754</v>
+        <v>0.01671739249959202</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007792573031752221</v>
+        <v>0.008281973279600627</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02272387761064869</v>
+        <v>0.02249562331628819</v>
       </c>
     </row>
     <row r="18">
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04249446200745612</v>
+        <v>0.04313406729683839</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01926730302769573</v>
+        <v>0.01736627391694225</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04271950760650172</v>
+        <v>0.04188421395355627</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05021259656869029</v>
+        <v>0.05325157782677008</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04265882697331456</v>
+        <v>0.04169488995023732</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04304375515398472</v>
+        <v>0.04348137903007289</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03889614841782157</v>
+        <v>0.03879518951449021</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02465181261979712</v>
+        <v>0.02427795770287465</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03932996423288502</v>
+        <v>0.03921335707406994</v>
       </c>
     </row>
     <row r="19">
@@ -1147,7 +1147,7 @@
         <v>0.03995702155965715</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.07658187010265857</v>
+        <v>0.07658187010265856</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.07011954220391484</v>
@@ -1156,7 +1156,7 @@
         <v>0.06048009618360616</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.09867073185589394</v>
+        <v>0.09867073185589395</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.07069335188241795</v>
@@ -1176,31 +1176,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04501690601020156</v>
+        <v>0.04557851632933634</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02148377437478846</v>
+        <v>0.02172634820947201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05838835610687902</v>
+        <v>0.0568356644379343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04693695678649286</v>
+        <v>0.04630246047414802</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03813661760691992</v>
+        <v>0.04048476656787075</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.079265495577511</v>
+        <v>0.0802332952544494</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05137560052824554</v>
+        <v>0.05343474997436531</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03568924422490767</v>
+        <v>0.03566408005992588</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07456538137964475</v>
+        <v>0.07337008558277552</v>
       </c>
     </row>
     <row r="21">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1067145234372599</v>
+        <v>0.1083871579251163</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06573247662625679</v>
+        <v>0.06449971904598442</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1020444219430579</v>
+        <v>0.1000830518160468</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1020537259916514</v>
+        <v>0.1039305515523405</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0860245992285304</v>
+        <v>0.09269995847540012</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.122629999718777</v>
+        <v>0.1213746016344293</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09206473169718858</v>
+        <v>0.09198375741013388</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06802329915580564</v>
+        <v>0.0703766594295224</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1033142976121527</v>
+        <v>0.1036491650791162</v>
       </c>
     </row>
     <row r="22">
@@ -1274,7 +1274,7 @@
         <v>0.08982509454252706</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.1818763355926376</v>
+        <v>0.1818763355926375</v>
       </c>
     </row>
     <row r="23">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07566466636146946</v>
+        <v>0.07192815717348446</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04731050735633283</v>
+        <v>0.04742446121404792</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1335371108550402</v>
+        <v>0.1345356513189029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09075264938770765</v>
+        <v>0.09377433519565824</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07041589258438737</v>
+        <v>0.07040115737751883</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1665820434489895</v>
+        <v>0.1685765442055757</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09562762737431058</v>
+        <v>0.09411143913956947</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06613600506336462</v>
+        <v>0.06950916706631037</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1602085982642285</v>
+        <v>0.1628698023878246</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.168946845505765</v>
+        <v>0.1649407157577368</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1067499348668381</v>
+        <v>0.1071859726203108</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1987192603083257</v>
+        <v>0.2009306864969328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1627011791907709</v>
+        <v>0.1624789526490517</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1369739917298101</v>
+        <v>0.1368882369397891</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2184183740191956</v>
+        <v>0.2227811135612796</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1490047464592689</v>
+        <v>0.1493021120278403</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1154933803151432</v>
+        <v>0.1141218990768419</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2025515795859936</v>
+        <v>0.2028763696283346</v>
       </c>
     </row>
     <row r="25">
@@ -1383,7 +1383,7 @@
         <v>0.0166962359652568</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.03789208662551559</v>
+        <v>0.03789208662551558</v>
       </c>
     </row>
     <row r="26">
@@ -1394,31 +1394,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01520251524527415</v>
+        <v>0.01494209637510456</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.007264238715259309</v>
+        <v>0.007430388268330931</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02668816057597135</v>
+        <v>0.02617201660941181</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02156891674828244</v>
+        <v>0.02150028959023025</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01796742505529133</v>
+        <v>0.01764986302069354</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03961516006731217</v>
+        <v>0.04017999867252654</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01957924721141818</v>
+        <v>0.01985393277292434</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01371901388429192</v>
+        <v>0.01381790514721977</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03460069784431748</v>
+        <v>0.03474782421906175</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02530010572625466</v>
+        <v>0.02534816209930857</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01397583083922973</v>
+        <v>0.01413992815500514</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03708406509894682</v>
+        <v>0.03608254743302292</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03244326538359218</v>
+        <v>0.0320313471840005</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02855033919060121</v>
+        <v>0.02837992088294745</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0499970974055269</v>
+        <v>0.05079300706367931</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02704997425167421</v>
+        <v>0.02758938401501106</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01982103987460975</v>
+        <v>0.02019220553175402</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04171612553916271</v>
+        <v>0.04197822691233973</v>
       </c>
     </row>
     <row r="28">
@@ -1710,21 +1710,21 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4688</v>
+        <v>4667</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>12086</v>
+        <v>13426</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5584</v>
+        <v>4665</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>12525</v>
+        <v>16214</v>
       </c>
     </row>
     <row r="8">
@@ -1840,23 +1840,23 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>11865</v>
+        <v>13207</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5260</v>
+        <v>5951</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4914</v>
+        <v>4916</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>5272</v>
+        <v>5734</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4949</v>
+        <v>4921</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12060</v>
+        <v>14897</v>
       </c>
     </row>
     <row r="12">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1048</v>
+        <v>932</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
@@ -1955,7 +1955,7 @@
         <v>749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2897</v>
+        <v>2886</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -1972,27 +1972,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9694</v>
+        <v>9657</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>12553</v>
+        <v>9981</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6154</v>
+        <v>6133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6379</v>
+        <v>6986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15994</v>
+        <v>14957</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6194</v>
+        <v>6195</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6314</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="16">
@@ -2081,25 +2081,25 @@
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>3443</v>
+        <v>3453</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5117</v>
+        <v>4831</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2066</v>
+        <v>1129</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10652</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="19">
@@ -2110,29 +2110,29 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10228</v>
+        <v>11961</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>14966</v>
+        <v>14666</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9128</v>
+        <v>9352</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8768</v>
+        <v>9482</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13855</v>
+        <v>13963</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15585</v>
+        <v>14840</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>8554</v>
+        <v>9370</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>24911</v>
+        <v>23753</v>
       </c>
     </row>
     <row r="20">
@@ -2217,31 +2217,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4285</v>
+        <v>5261</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10944</v>
+        <v>10742</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7332</v>
+        <v>7654</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6457</v>
+        <v>6032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12933</v>
+        <v>13037</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14863</v>
+        <v>14665</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7596</v>
+        <v>8073</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27596</v>
+        <v>27319</v>
       </c>
     </row>
     <row r="23">
@@ -2252,31 +2252,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18248</v>
+        <v>18523</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9208</v>
+        <v>8300</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25989</v>
+        <v>25481</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22485</v>
+        <v>23846</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21195</v>
+        <v>20716</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>26086</v>
+        <v>26351</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34121</v>
+        <v>34032</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24030</v>
+        <v>23665</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>47762</v>
+        <v>47620</v>
       </c>
     </row>
     <row r="24">
@@ -2361,31 +2361,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>13946</v>
+        <v>14120</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7183</v>
+        <v>7264</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>23667</v>
+        <v>23038</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>16615</v>
+        <v>16391</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14407</v>
+        <v>15294</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>34774</v>
+        <v>35199</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>34102</v>
+        <v>35469</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>25414</v>
+        <v>25396</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>62937</v>
+        <v>61928</v>
       </c>
     </row>
     <row r="27">
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>33059</v>
+        <v>33577</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21976</v>
+        <v>21564</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41363</v>
+        <v>40568</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>36127</v>
+        <v>36791</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>32497</v>
+        <v>35019</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>53799</v>
+        <v>53248</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>61111</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>48439</v>
+        <v>50115</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>87203</v>
+        <v>87485</v>
       </c>
     </row>
     <row r="28">
@@ -2505,31 +2505,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18905</v>
+        <v>17971</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12159</v>
+        <v>12188</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>41297</v>
+        <v>41606</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>35301</v>
+        <v>36476</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28178</v>
+        <v>28172</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>77396</v>
+        <v>78322</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>61090</v>
+        <v>60121</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>43462</v>
+        <v>45679</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>123980</v>
+        <v>126039</v>
       </c>
     </row>
     <row r="31">
@@ -2540,31 +2540,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42212</v>
+        <v>41211</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>27435</v>
+        <v>27547</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>61455</v>
+        <v>62139</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>63287</v>
+        <v>63201</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>54813</v>
+        <v>54778</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>101479</v>
+        <v>103506</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>95189</v>
+        <v>95379</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>75898</v>
+        <v>74997</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>156748</v>
+        <v>156999</v>
       </c>
     </row>
     <row r="32">
@@ -2649,31 +2649,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>52096</v>
+        <v>51203</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>24657</v>
+        <v>25221</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>94149</v>
+        <v>92328</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>76680</v>
+        <v>76436</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>63686</v>
+        <v>62561</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>147801</v>
+        <v>149909</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>136700</v>
+        <v>138618</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>95195</v>
+        <v>95881</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>251155</v>
+        <v>252223</v>
       </c>
     </row>
     <row r="35">
@@ -2684,31 +2684,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>86698</v>
+        <v>86863</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>47439</v>
+        <v>47996</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>130823</v>
+        <v>127290</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>115339</v>
+        <v>113875</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>101198</v>
+        <v>100594</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>186536</v>
+        <v>189505</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>188860</v>
+        <v>192626</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>137536</v>
+        <v>140112</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>302804</v>
+        <v>304706</v>
       </c>
     </row>
     <row r="36">
